--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="baseline training" sheetId="2" r:id="rId1"/>
@@ -14,16 +14,17 @@
     <sheet name="different epsilon &amp; decay rate" sheetId="5" r:id="rId5"/>
     <sheet name="diff e&amp; dr result" sheetId="8" r:id="rId6"/>
     <sheet name="diff alpha &amp; gmama training" sheetId="9" r:id="rId7"/>
+    <sheet name="diff alpha&amp;gamma result" sheetId="10" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="334">
   <si>
     <t xml:space="preserve"> episode</t>
   </si>
@@ -874,163 +875,157 @@
     <t>took 4554.198 seconds</t>
   </si>
   <si>
-    <t>99/5000: episode: 1, duration: 2.948s, episode steps:  99, steps per second:  34, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 1.788 [0.000, 5.000],  loss: --, mean_q: --, mean_eps: --</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  198/5000: episode: 2, duration: 97.707s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.091 [0.000, 5.000],  loss: 169740705139966083072.000000, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  297/5000: episode: 3, duration: 100.301s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.101 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  396/5000: episode: 4, duration: 101.654s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.020 [0.000, 2.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  495/5000: episode: 5, duration: 101.923s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.091 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  594/5000: episode: 6, duration: 103.933s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.020 [0.000, 2.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  693/5000: episode: 7, duration: 105.539s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.051 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  792/5000: episode: 8, duration: 104.792s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.202 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  891/5000: episode: 9, duration: 105.543s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  990/5000: episode: 10, duration: 105.072s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1089/5000: episode: 11, duration: 106.789s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.051 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1188/5000: episode: 12, duration: 106.870s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1287/5000: episode: 13, duration: 106.064s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1386/5000: episode: 14, duration: 106.027s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.071 [0.000, 4.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1485/5000: episode: 15, duration: 106.114s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1584/5000: episode: 16, duration: 106.038s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1683/5000: episode: 17, duration: 104.735s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1782/5000: episode: 18, duration: 106.656s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1881/5000: episode: 19, duration: 106.042s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.010 [0.000, 1.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1980/5000: episode: 20, duration: 105.011s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2079/5000: episode: 21, duration: 105.002s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2178/5000: episode: 22, duration: 103.983s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.051 [0.000, 4.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2277/5000: episode: 23, duration: 104.753s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.010 [0.000, 1.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2376/5000: episode: 24, duration: 104.212s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.030 [0.000, 3.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2475/5000: episode: 25, duration: 105.062s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2574/5000: episode: 26, duration: 104.295s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.020 [0.000, 2.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2673/5000: episode: 27, duration: 105.507s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2772/5000: episode: 28, duration: 104.587s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2871/5000: episode: 29, duration: 105.145s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.040 [0.000, 4.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2970/5000: episode: 30, duration: 104.580s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.010 [0.000, 1.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3069/5000: episode: 31, duration: 104.769s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.010 [0.000, 1.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3168/5000: episode: 32, duration: 105.334s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3267/5000: episode: 33, duration: 104.510s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.040 [0.000, 4.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3366/5000: episode: 34, duration: 103.699s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.051 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3465/5000: episode: 35, duration: 103.900s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.040 [0.000, 4.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3564/5000: episode: 36, duration: 103.852s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3663/5000: episode: 37, duration: 108.691s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.051 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3762/5000: episode: 38, duration: 110.290s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.081 [0.000, 4.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3861/5000: episode: 39, duration: 106.358s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.010 [0.000, 1.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3960/5000: episode: 40, duration: 104.736s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.051 [0.000, 4.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4059/5000: episode: 41, duration: 106.307s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4158/5000: episode: 42, duration: 106.823s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.051 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4257/5000: episode: 43, duration: 111.382s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.061 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4356/5000: episode: 44, duration: 112.745s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.101 [0.000, 5.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4455/5000: episode: 45, duration: 111.099s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.010 [0.000, 1.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4554/5000: episode: 46, duration: 104.794s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4653/5000: episode: 47, duration: 110.572s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.010 [0.000, 1.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4752/5000: episode: 48, duration: 106.795s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4851/5000: episode: 49, duration: 102.907s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4950/5000: episode: 50, duration: 101.405s, episode steps:  99, steps per second:   1, episode reward:  0.000, mean reward:  0.000 [ 0.000,  0.000], mean action: 0.000 [0.000, 0.000],  loss: --, mean_q: -inf, mean_eps: 0.010000</t>
-  </si>
-  <si>
-    <t>done, took 5218.677 seconds</t>
-  </si>
-  <si>
-    <t>Out[30]:</t>
-  </si>
-  <si>
-    <t>&lt;tensorflow.python.keras.callbacks.History at 0x19204a84488&gt;</t>
+    <t xml:space="preserve"> 2.654s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.151s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.739s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.459s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.066s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.746s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.941s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103.286s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.879s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.068s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100.941s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103.429s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.150s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.024s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103.389s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108.477s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103.296s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103.115s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105.275s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104.898s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103.096s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.362s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.189s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104.940s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.656s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.291s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.320s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.028s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.283s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.777s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.998s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100.928s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.220s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100.943s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104.212s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100.610s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.785s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.364s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.183s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.567s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.002s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.087s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.157s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.186s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.966s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100.815s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.307s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100.639s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.751s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> took 5056.725 seconds</t>
   </si>
 </sst>
 </file>
@@ -1052,6 +1047,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -1060,12 +1061,6 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFD84315"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -1672,12 +1667,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7022,6 +7017,1774 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'diff alpha&amp;gamma result'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'diff alpha&amp;gamma result'!$A$2:$A$101</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>Episode 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Episode 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Episode 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Episode 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Episode 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Episode 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Episode 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Episode 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Episode 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Episode 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Episode 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Episode 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Episode 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Episode 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Episode 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Episode 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Episode 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Episode 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Episode 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Episode 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Episode 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Episode 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Episode 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Episode 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Episode 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Episode 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Episode 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Episode 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Episode 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Episode 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Episode 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Episode 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Episode 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Episode 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Episode 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Episode 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Episode 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Episode 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Episode 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Episode 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Episode 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Episode 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Episode 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Episode 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Episode 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Episode 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Episode 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Episode 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Episode 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Episode 50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Episode 51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Episode 52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Episode 53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Episode 54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Episode 55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Episode 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Episode 57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Episode 58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Episode 59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Episode 60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Episode 61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Episode 62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Episode 63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Episode 64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Episode 65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Episode 66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Episode 67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Episode 68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Episode 69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Episode 70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Episode 71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Episode 72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Episode 73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Episode 74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Episode 75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Episode 76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Episode 77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Episode 78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Episode 79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Episode 80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Episode 81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Episode 82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Episode 83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Episode 84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Episode 85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Episode 86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Episode 87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Episode 88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Episode 89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Episode 90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Episode 91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Episode 92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Episode 93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Episode 94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Episode 95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Episode 96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Episode 97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Episode 98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Episode 99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Episode 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'diff alpha&amp;gamma result'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306102102"/>
+        <c:axId val="457354383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306102102"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457354383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457354383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306102102"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'diff alpha&amp;gamma result'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'diff alpha&amp;gamma result'!$A$2:$A$101</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>Episode 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Episode 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Episode 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Episode 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Episode 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Episode 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Episode 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Episode 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Episode 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Episode 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Episode 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Episode 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Episode 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Episode 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Episode 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Episode 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Episode 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Episode 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Episode 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Episode 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Episode 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Episode 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Episode 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Episode 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Episode 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Episode 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Episode 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Episode 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Episode 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Episode 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Episode 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Episode 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Episode 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Episode 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Episode 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Episode 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Episode 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Episode 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Episode 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Episode 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Episode 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Episode 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Episode 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Episode 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Episode 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Episode 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Episode 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Episode 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Episode 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Episode 50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Episode 51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Episode 52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Episode 53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Episode 54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Episode 55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Episode 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Episode 57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Episode 58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Episode 59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Episode 60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Episode 61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Episode 62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Episode 63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Episode 64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Episode 65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Episode 66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Episode 67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Episode 68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Episode 69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Episode 70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Episode 71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Episode 72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Episode 73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Episode 74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Episode 75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Episode 76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Episode 77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Episode 78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Episode 79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Episode 80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Episode 81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Episode 82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Episode 83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Episode 84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Episode 85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Episode 86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Episode 87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Episode 88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Episode 89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Episode 90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Episode 91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Episode 92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Episode 93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Episode 94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Episode 95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Episode 96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Episode 97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Episode 98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Episode 99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Episode 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'diff alpha&amp;gamma result'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="691035734"/>
+        <c:axId val="94232813"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="691035734"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94232813"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94232813"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691035734"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7223,6 +8986,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10358,6 +12201,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10541,6 +13416,71 @@
       <xdr:xfrm>
         <a:off x="4480560" y="3987800"/>
         <a:ext cx="5234940" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7620000" y="574040"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7612380" y="3439160"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11669,8 +14609,8 @@
   <sheetPr/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13487,8 +16427,8 @@
   <sheetPr/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A$1:A$1048576 B$1:B$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -13513,7 +16453,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B2">
@@ -13525,7 +16465,7 @@
       <c r="F2" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>270</v>
       </c>
       <c r="H2">
@@ -13534,7 +16474,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B3">
@@ -13545,7 +16485,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B4">
@@ -13556,7 +16496,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B5">
@@ -13567,7 +16507,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B6">
@@ -13578,7 +16518,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B7">
@@ -13589,7 +16529,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B8">
@@ -13600,7 +16540,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B9">
@@ -13611,7 +16551,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B10">
@@ -13622,7 +16562,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B11">
@@ -13633,7 +16573,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B12">
@@ -13644,7 +16584,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B13">
@@ -13655,7 +16595,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B14">
@@ -13666,7 +16606,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B15">
@@ -13677,7 +16617,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B16">
@@ -13688,7 +16628,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B17">
@@ -13699,7 +16639,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B18">
@@ -13710,7 +16650,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B19">
@@ -13721,7 +16661,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B20">
@@ -13732,7 +16672,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B21">
@@ -13743,7 +16683,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B22">
@@ -13754,7 +16694,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B23">
@@ -13765,7 +16705,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B24">
@@ -13776,7 +16716,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B25">
@@ -13787,7 +16727,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B26">
@@ -13798,7 +16738,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B27">
@@ -13809,7 +16749,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B28">
@@ -13820,7 +16760,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B29">
@@ -13831,7 +16771,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B30">
@@ -13842,7 +16782,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B31">
@@ -13853,7 +16793,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B32">
@@ -13864,7 +16804,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B33">
@@ -13875,7 +16815,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B34">
@@ -13886,7 +16826,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B35">
@@ -13897,7 +16837,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B36">
@@ -13908,7 +16848,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B37">
@@ -13919,7 +16859,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B38">
@@ -13930,7 +16870,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B39">
@@ -13941,7 +16881,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B40">
@@ -13952,7 +16892,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B41">
@@ -13963,7 +16903,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B42">
@@ -13974,7 +16914,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B43">
@@ -13985,7 +16925,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B44">
@@ -13996,7 +16936,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B45">
@@ -14007,7 +16947,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B46">
@@ -14018,7 +16958,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B47">
@@ -14029,7 +16969,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B48">
@@ -14040,7 +16980,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B49">
@@ -14051,7 +16991,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B50">
@@ -14062,7 +17002,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B51">
@@ -14073,7 +17013,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B52">
@@ -14084,7 +17024,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B53">
@@ -14095,7 +17035,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B54">
@@ -14106,7 +17046,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B55">
@@ -14117,7 +17057,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B56">
@@ -14128,7 +17068,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B57">
@@ -14139,7 +17079,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B58">
@@ -14150,7 +17090,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B59">
@@ -14161,7 +17101,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B60">
@@ -14172,7 +17112,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B61">
@@ -14183,7 +17123,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B62">
@@ -14194,7 +17134,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B63">
@@ -14205,7 +17145,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B64">
@@ -14216,7 +17156,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B65">
@@ -14227,7 +17167,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B66">
@@ -14238,7 +17178,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B67">
@@ -14249,7 +17189,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B68">
@@ -14260,7 +17200,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B69">
@@ -14271,7 +17211,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B70">
@@ -14282,7 +17222,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B71">
@@ -14293,7 +17233,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B72">
@@ -14304,7 +17244,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B73">
@@ -14315,7 +17255,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B74">
@@ -14326,7 +17266,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B75">
@@ -14337,7 +17277,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B76">
@@ -14348,7 +17288,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B77">
@@ -14359,7 +17299,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B78">
@@ -14370,7 +17310,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B79">
@@ -14381,7 +17321,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B80">
@@ -14392,7 +17332,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B81">
@@ -14403,7 +17343,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B82">
@@ -14414,7 +17354,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B83">
@@ -14425,7 +17365,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B84">
@@ -14436,7 +17376,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B85">
@@ -14447,7 +17387,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B86">
@@ -14458,7 +17398,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B87">
@@ -14469,7 +17409,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B88">
@@ -14480,7 +17420,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B89">
@@ -14491,7 +17431,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B90">
@@ -14502,7 +17442,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B91">
@@ -14513,7 +17453,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B92">
@@ -14524,7 +17464,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B93">
@@ -14535,7 +17475,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B94">
@@ -14546,7 +17486,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B95">
@@ -14557,7 +17497,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B96">
@@ -14568,7 +17508,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B97">
@@ -14579,7 +17519,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B98">
@@ -14590,7 +17530,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B99">
@@ -14601,7 +17541,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B100">
@@ -14612,7 +17552,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B101">
@@ -14635,7 +17575,7 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -14922,7 +17862,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -18020,7 +20960,7 @@
       <c r="A52" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -18060,7 +21000,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B2">
@@ -18069,10 +21009,10 @@
       <c r="C2">
         <v>972</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>285</v>
       </c>
       <c r="I2">
@@ -18081,7 +21021,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B3">
@@ -18092,7 +21032,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B4">
@@ -18103,7 +21043,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B5">
@@ -18114,7 +21054,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B6">
@@ -18125,7 +21065,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B7">
@@ -18136,7 +21076,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B8">
@@ -18147,7 +21087,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B9">
@@ -18158,7 +21098,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B10">
@@ -18169,7 +21109,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B11">
@@ -18180,7 +21120,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B12">
@@ -18191,7 +21131,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B13">
@@ -18202,7 +21142,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B14">
@@ -18213,7 +21153,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B15">
@@ -18224,7 +21164,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B16">
@@ -18235,7 +21175,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B17">
@@ -18246,7 +21186,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B18">
@@ -18257,7 +21197,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B19">
@@ -18268,7 +21208,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B20">
@@ -18279,7 +21219,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B21">
@@ -18290,7 +21230,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B22">
@@ -18301,7 +21241,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B23">
@@ -18312,7 +21252,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B24">
@@ -18323,7 +21263,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B25">
@@ -18334,7 +21274,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B26">
@@ -18345,7 +21285,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B27">
@@ -18356,7 +21296,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B28">
@@ -18367,7 +21307,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B29">
@@ -18378,7 +21318,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B30">
@@ -18389,7 +21329,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B31">
@@ -18400,7 +21340,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B32">
@@ -18411,7 +21351,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B33">
@@ -18422,7 +21362,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B34">
@@ -18433,7 +21373,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B35">
@@ -18444,7 +21384,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B36">
@@ -18455,7 +21395,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B37">
@@ -18466,7 +21406,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B38">
@@ -18477,7 +21417,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B39">
@@ -18488,7 +21428,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B40">
@@ -18499,7 +21439,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B41">
@@ -18510,7 +21450,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B42">
@@ -18521,7 +21461,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B43">
@@ -18532,7 +21472,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B44">
@@ -18543,7 +21483,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B45">
@@ -18554,7 +21494,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B46">
@@ -18565,7 +21505,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B47">
@@ -18576,7 +21516,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B48">
@@ -18587,7 +21527,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B49">
@@ -18598,7 +21538,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B50">
@@ -18609,7 +21549,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B51">
@@ -18620,7 +21560,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B52">
@@ -18631,7 +21571,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B53">
@@ -18642,7 +21582,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B54">
@@ -18653,7 +21593,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B55">
@@ -18664,7 +21604,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B56">
@@ -18675,7 +21615,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B57">
@@ -18686,7 +21626,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B58">
@@ -18697,7 +21637,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B59">
@@ -18708,7 +21648,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B60">
@@ -18719,7 +21659,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B61">
@@ -18730,7 +21670,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B62">
@@ -18741,7 +21681,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B63">
@@ -18752,7 +21692,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B64">
@@ -18763,7 +21703,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B65">
@@ -18774,7 +21714,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B66">
@@ -18785,7 +21725,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B67">
@@ -18796,7 +21736,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B68">
@@ -18807,7 +21747,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B69">
@@ -18818,7 +21758,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B70">
@@ -18829,7 +21769,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B71">
@@ -18840,7 +21780,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B72">
@@ -18851,7 +21791,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B73">
@@ -18862,7 +21802,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B74">
@@ -18873,7 +21813,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B75">
@@ -18884,7 +21824,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B76">
@@ -18895,7 +21835,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B77">
@@ -18906,7 +21846,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B78">
@@ -18917,7 +21857,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B79">
@@ -18928,7 +21868,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B80">
@@ -18939,7 +21879,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B81">
@@ -18950,7 +21890,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B82">
@@ -18961,7 +21901,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B83">
@@ -18972,7 +21912,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B84">
@@ -18983,7 +21923,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B85">
@@ -18994,7 +21934,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B86">
@@ -19005,7 +21945,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B87">
@@ -19016,7 +21956,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B88">
@@ -19027,7 +21967,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B89">
@@ -19038,7 +21978,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B90">
@@ -19049,7 +21989,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B91">
@@ -19060,7 +22000,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B92">
@@ -19071,7 +22011,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B93">
@@ -19082,7 +22022,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B94">
@@ -19093,7 +22033,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B95">
@@ -19104,7 +22044,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B96">
@@ -19115,7 +22055,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B97">
@@ -19126,7 +22066,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B98">
@@ -19137,7 +22077,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B99">
@@ -19148,7 +22088,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B100">
@@ -19159,7 +22099,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B101">
@@ -19179,281 +22119,2974 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A53"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.4444444444444" customWidth="1"/>
+    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
+    <col min="10" max="11" width="12.8888888888889"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.101</v>
+      </c>
+      <c r="H2">
+        <v>2.071</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0.101</v>
+      </c>
+      <c r="H3">
+        <v>3.949</v>
+      </c>
+      <c r="I3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="J3">
+        <v>5.70223804667556e+18</v>
+      </c>
+      <c r="K3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0.152</v>
+      </c>
+      <c r="H4">
+        <v>3.96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J4">
+        <v>7.50741771563212e+18</v>
+      </c>
+      <c r="K4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.101</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5">
+        <v>7.47161335225936e+18</v>
+      </c>
+      <c r="K5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.101</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J6">
+        <v>7.48039058143813e+18</v>
+      </c>
+      <c r="K6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="D7">
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.101</v>
+      </c>
+      <c r="H7">
+        <v>3.99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J7">
+        <v>7.48034306365531e+18</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.101</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8">
+        <v>7.47494935938745e+18</v>
+      </c>
+      <c r="K8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="D9">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.101</v>
+      </c>
+      <c r="H9">
+        <v>3.98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J9">
+        <v>7.4767193065599e+18</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.101</v>
+      </c>
+      <c r="H10">
+        <v>3.98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>285</v>
+      </c>
+      <c r="J10">
+        <v>7.45491911737023e+18</v>
+      </c>
+      <c r="K10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0.101</v>
+      </c>
+      <c r="H11">
+        <v>3.929</v>
+      </c>
+      <c r="I11" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11">
+        <v>7.46496185666713e+18</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0.101</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>285</v>
+      </c>
+      <c r="J12">
+        <v>7.45681901237904e+18</v>
+      </c>
+      <c r="K12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="D13">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.101</v>
+      </c>
+      <c r="H13">
+        <v>3.99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>285</v>
+      </c>
+      <c r="J13">
+        <v>7.44253610089214e+18</v>
+      </c>
+      <c r="K13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="D14">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>0.101</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>285</v>
+      </c>
+      <c r="J14">
+        <v>7.46990192909219e+18</v>
+      </c>
+      <c r="K14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="D15">
+        <v>99</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>0.101</v>
+      </c>
+      <c r="H15">
+        <v>3.98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J15">
+        <v>7.46625369953343e+18</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="D16">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>0.101</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>285</v>
+      </c>
+      <c r="J16">
+        <v>7.4521620308796e+18</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>0.101</v>
+      </c>
+      <c r="H17">
+        <v>3.96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>285</v>
+      </c>
+      <c r="J17">
+        <v>7.42305553139246e+18</v>
+      </c>
+      <c r="K17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="D18">
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>0.101</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>285</v>
+      </c>
+      <c r="J18">
+        <v>7.4468687708861e+18</v>
+      </c>
+      <c r="K18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>0.101</v>
+      </c>
+      <c r="H19">
+        <v>3.97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>285</v>
+      </c>
+      <c r="J19">
+        <v>7.4504093204955e+18</v>
+      </c>
+      <c r="K19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>0.101</v>
+      </c>
+      <c r="H20">
+        <v>3.96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>285</v>
+      </c>
+      <c r="J20">
+        <v>7.44926645034858e+18</v>
+      </c>
+      <c r="K20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="D21">
+        <v>99</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>0.101</v>
+      </c>
+      <c r="H21">
+        <v>3.98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>285</v>
+      </c>
+      <c r="J21">
+        <v>7.44486248424457e+18</v>
+      </c>
+      <c r="K21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="D22">
+        <v>99</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0.101</v>
+      </c>
+      <c r="H22">
+        <v>3.899</v>
+      </c>
+      <c r="I22" t="s">
+        <v>285</v>
+      </c>
+      <c r="J22">
+        <v>7.45878268461536e+18</v>
+      </c>
+      <c r="K22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="D23">
+        <v>99</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>0.101</v>
+      </c>
+      <c r="H23">
+        <v>4.01</v>
+      </c>
+      <c r="I23" t="s">
+        <v>285</v>
+      </c>
+      <c r="J23">
+        <v>7.44860154568059e+18</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>0.101</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>285</v>
+      </c>
+      <c r="J24">
+        <v>7.46526827611976e+18</v>
+      </c>
+      <c r="K24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="D25">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>0.101</v>
+      </c>
+      <c r="H25">
+        <v>3.929</v>
+      </c>
+      <c r="I25" t="s">
+        <v>285</v>
+      </c>
+      <c r="J25">
+        <v>7.46108381807198e+18</v>
+      </c>
+      <c r="K25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="D26">
+        <v>99</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>0.101</v>
+      </c>
+      <c r="H26">
+        <v>4.01</v>
+      </c>
+      <c r="I26" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26">
+        <v>7.4554665020151e+18</v>
+      </c>
+      <c r="K26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="D27">
+        <v>99</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>0.101</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27">
+        <v>7.43450321887301e+18</v>
+      </c>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="D28">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>0.101</v>
+      </c>
+      <c r="H28">
+        <v>3.98</v>
+      </c>
+      <c r="I28" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28">
+        <v>7.44152268990976e+18</v>
+      </c>
+      <c r="K28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="D29">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0.101</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>285</v>
+      </c>
+      <c r="J29">
+        <v>7.42663627981334e+18</v>
+      </c>
+      <c r="K29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="D30">
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>0.101</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30">
+        <v>7.44181723130496e+18</v>
+      </c>
+      <c r="K30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0.101</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31">
+        <v>7.448754449987e+18</v>
+      </c>
+      <c r="K31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="D32">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>0.101</v>
+      </c>
+      <c r="H32">
+        <v>4.02</v>
+      </c>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32">
+        <v>7.44295665853667e+18</v>
+      </c>
+      <c r="K32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="D33">
+        <v>99</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>0.101</v>
+      </c>
+      <c r="H33">
+        <v>4.02</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33">
+        <v>7.43174222300771e+18</v>
+      </c>
+      <c r="K33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="D34">
+        <v>99</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>0.101</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34">
+        <v>7.46203016995124e+18</v>
+      </c>
+      <c r="K34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="D35">
+        <v>99</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>0.101</v>
+      </c>
+      <c r="H35">
+        <v>3.96</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35">
+        <v>7.45959341895435e+18</v>
+      </c>
+      <c r="K35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="D36">
+        <v>99</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0.101</v>
+      </c>
+      <c r="H36">
+        <v>3.99</v>
+      </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36">
+        <v>7.44840820933295e+18</v>
+      </c>
+      <c r="K36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="D37">
+        <v>99</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>0.101</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37">
+        <v>7.44339160978797e+18</v>
+      </c>
+      <c r="K37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="D38">
+        <v>99</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>0.101</v>
+      </c>
+      <c r="H38">
+        <v>3.939</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38">
+        <v>7.44065445888696e+18</v>
+      </c>
+      <c r="K38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="D39">
+        <v>99</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>0.101</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>285</v>
+      </c>
+      <c r="J39">
+        <v>7.44062012969058e+18</v>
+      </c>
+      <c r="K39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="D40">
+        <v>99</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>0.101</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40">
+        <v>7.44848949545016e+18</v>
+      </c>
+      <c r="K40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="D41">
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>0.101</v>
+      </c>
+      <c r="H41">
+        <v>3.97</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41">
+        <v>7.46272457818125e+18</v>
+      </c>
+      <c r="K41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="D42">
+        <v>99</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>0.101</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J42">
+        <v>7.45703596046124e+18</v>
+      </c>
+      <c r="K42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="D43">
+        <v>99</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>0.101</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>285</v>
+      </c>
+      <c r="J43">
+        <v>7.44554126608205e+18</v>
+      </c>
+      <c r="K43">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+      <c r="D44">
+        <v>99</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>0.101</v>
+      </c>
+      <c r="H44">
+        <v>3.929</v>
+      </c>
+      <c r="I44" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44">
+        <v>7.44733051023888e+18</v>
+      </c>
+      <c r="K44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45">
+        <v>99</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>0.101</v>
+      </c>
+      <c r="H45">
+        <v>3.99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>285</v>
+      </c>
+      <c r="J45">
+        <v>7.45395625615728e+18</v>
+      </c>
+      <c r="K45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+      <c r="D46">
+        <v>99</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>0.101</v>
+      </c>
+      <c r="H46">
+        <v>3.96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46">
+        <v>7.44608172602491e+18</v>
+      </c>
+      <c r="K46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="D47">
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>0.101</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>285</v>
+      </c>
+      <c r="J47">
+        <v>7.45150428414336e+18</v>
+      </c>
+      <c r="K47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="D48">
+        <v>99</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>0.101</v>
+      </c>
+      <c r="H48">
+        <v>3.99</v>
+      </c>
+      <c r="I48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48">
+        <v>7.44478824499734e+18</v>
+      </c>
+      <c r="K48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+      <c r="D49">
+        <v>99</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>0.101</v>
+      </c>
+      <c r="H49">
+        <v>4.01</v>
+      </c>
+      <c r="I49" t="s">
+        <v>285</v>
+      </c>
+      <c r="J49">
+        <v>7.44491840940419e+18</v>
+      </c>
+      <c r="K49">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="D50">
+        <v>99</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>0.101</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>285</v>
+      </c>
+      <c r="J50">
+        <v>7.46358163083584e+18</v>
+      </c>
+      <c r="K50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="D51">
+        <v>99</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>0.101</v>
+      </c>
+      <c r="H51">
+        <v>3.96</v>
+      </c>
+      <c r="I51" t="s">
+        <v>285</v>
+      </c>
+      <c r="J51">
+        <v>7.46757824454102e+18</v>
+      </c>
+      <c r="K51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="52" ht="28.8" spans="1:1">
-      <c r="A52" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>720</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="1">
+        <v>270</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(C2:C101)</f>
+        <v>718.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>270</v>
+      </c>
+      <c r="C3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>270</v>
+      </c>
+      <c r="C4">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>270</v>
+      </c>
+      <c r="C5">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>270</v>
+      </c>
+      <c r="C6">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>270</v>
+      </c>
+      <c r="C7">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>270</v>
+      </c>
+      <c r="C8">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>270</v>
+      </c>
+      <c r="C9">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>270</v>
+      </c>
+      <c r="C10">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11">
+        <v>270</v>
+      </c>
+      <c r="C11">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12">
+        <v>270</v>
+      </c>
+      <c r="C12">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13">
+        <v>270</v>
+      </c>
+      <c r="C13">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>270</v>
+      </c>
+      <c r="C14">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15">
+        <v>270</v>
+      </c>
+      <c r="C15">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>270</v>
+      </c>
+      <c r="C16">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <v>270</v>
+      </c>
+      <c r="C17">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18">
+        <v>270</v>
+      </c>
+      <c r="C18">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19">
+        <v>270</v>
+      </c>
+      <c r="C19">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20">
+        <v>270</v>
+      </c>
+      <c r="C20">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21">
+        <v>270</v>
+      </c>
+      <c r="C21">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22">
+        <v>270</v>
+      </c>
+      <c r="C22">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23">
+        <v>270</v>
+      </c>
+      <c r="C23">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24">
+        <v>270</v>
+      </c>
+      <c r="C24">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <v>270</v>
+      </c>
+      <c r="C25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26">
+        <v>270</v>
+      </c>
+      <c r="C26">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27">
+        <v>270</v>
+      </c>
+      <c r="C27">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28">
+        <v>270</v>
+      </c>
+      <c r="C28">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29">
+        <v>270</v>
+      </c>
+      <c r="C29">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30">
+        <v>270</v>
+      </c>
+      <c r="C30">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <v>270</v>
+      </c>
+      <c r="C31">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32">
+        <v>270</v>
+      </c>
+      <c r="C32">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33">
+        <v>270</v>
+      </c>
+      <c r="C33">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34">
+        <v>270</v>
+      </c>
+      <c r="C34">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35">
+        <v>270</v>
+      </c>
+      <c r="C35">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <v>270</v>
+      </c>
+      <c r="C36">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37">
+        <v>270</v>
+      </c>
+      <c r="C37">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38">
+        <v>270</v>
+      </c>
+      <c r="C38">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39">
+        <v>270</v>
+      </c>
+      <c r="C39">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40">
+        <v>270</v>
+      </c>
+      <c r="C40">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41">
+        <v>270</v>
+      </c>
+      <c r="C41">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42">
+        <v>270</v>
+      </c>
+      <c r="C42">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43">
+        <v>270</v>
+      </c>
+      <c r="C43">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44">
+        <v>270</v>
+      </c>
+      <c r="C44">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45">
+        <v>270</v>
+      </c>
+      <c r="C45">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46">
+        <v>270</v>
+      </c>
+      <c r="C46">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47">
+        <v>270</v>
+      </c>
+      <c r="C47">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48">
+        <v>270</v>
+      </c>
+      <c r="C48">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49">
+        <v>270</v>
+      </c>
+      <c r="C49">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50">
+        <v>270</v>
+      </c>
+      <c r="C50">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51">
+        <v>270</v>
+      </c>
+      <c r="C51">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52">
+        <v>270</v>
+      </c>
+      <c r="C52">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53">
+        <v>270</v>
+      </c>
+      <c r="C53">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54">
+        <v>270</v>
+      </c>
+      <c r="C54">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55">
+        <v>270</v>
+      </c>
+      <c r="C55">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56">
+        <v>270</v>
+      </c>
+      <c r="C56">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57">
+        <v>270</v>
+      </c>
+      <c r="C57">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58">
+        <v>270</v>
+      </c>
+      <c r="C58">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59">
+        <v>270</v>
+      </c>
+      <c r="C59">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60">
+        <v>270</v>
+      </c>
+      <c r="C60">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61">
+        <v>270</v>
+      </c>
+      <c r="C61">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62">
+        <v>270</v>
+      </c>
+      <c r="C62">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63">
+        <v>270</v>
+      </c>
+      <c r="C63">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64">
+        <v>270</v>
+      </c>
+      <c r="C64">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65">
+        <v>270</v>
+      </c>
+      <c r="C65">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66">
+        <v>270</v>
+      </c>
+      <c r="C66">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67">
+        <v>270</v>
+      </c>
+      <c r="C67">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68">
+        <v>270</v>
+      </c>
+      <c r="C68">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69">
+        <v>270</v>
+      </c>
+      <c r="C69">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70">
+        <v>270</v>
+      </c>
+      <c r="C70">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71">
+        <v>270</v>
+      </c>
+      <c r="C71">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72">
+        <v>270</v>
+      </c>
+      <c r="C72">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73">
+        <v>270</v>
+      </c>
+      <c r="C73">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74">
+        <v>270</v>
+      </c>
+      <c r="C74">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75">
+        <v>270</v>
+      </c>
+      <c r="C75">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76">
+        <v>270</v>
+      </c>
+      <c r="C76">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77">
+        <v>270</v>
+      </c>
+      <c r="C77">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78">
+        <v>270</v>
+      </c>
+      <c r="C78">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79">
+        <v>270</v>
+      </c>
+      <c r="C79">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80">
+        <v>270</v>
+      </c>
+      <c r="C80">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81">
+        <v>270</v>
+      </c>
+      <c r="C81">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82">
+        <v>270</v>
+      </c>
+      <c r="C82">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83">
+        <v>270</v>
+      </c>
+      <c r="C83">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84">
+        <v>270</v>
+      </c>
+      <c r="C84">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85">
+        <v>270</v>
+      </c>
+      <c r="C85">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86">
+        <v>270</v>
+      </c>
+      <c r="C86">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87">
+        <v>270</v>
+      </c>
+      <c r="C87">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88">
+        <v>270</v>
+      </c>
+      <c r="C88">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89">
+        <v>270</v>
+      </c>
+      <c r="C89">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90">
+        <v>270</v>
+      </c>
+      <c r="C90">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91">
+        <v>270</v>
+      </c>
+      <c r="C91">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92">
+        <v>270</v>
+      </c>
+      <c r="C92">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93">
+        <v>270</v>
+      </c>
+      <c r="C93">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94">
+        <v>270</v>
+      </c>
+      <c r="C94">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95">
+        <v>270</v>
+      </c>
+      <c r="C95">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96">
+        <v>270</v>
+      </c>
+      <c r="C96">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97">
+        <v>270</v>
+      </c>
+      <c r="C97">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98">
+        <v>270</v>
+      </c>
+      <c r="C98">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99">
+        <v>270</v>
+      </c>
+      <c r="C99">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100">
+        <v>270</v>
+      </c>
+      <c r="C100">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101">
+        <v>270</v>
+      </c>
+      <c r="C101">
+        <v>712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>